--- a/data_xlsx/现货价_原油(中国胜利)_环太平洋.xlsx
+++ b/data_xlsx/现货价_原油(中国胜利)_环太平洋.xlsx
@@ -27162,8 +27162,144 @@
         <v>77.93</v>
       </c>
     </row>
+    <row r="3386">
+      <c r="A3386" s="1" t="n">
+        <v>45119.0</v>
+      </c>
+      <c r="B3386" s="2" t="n">
+        <v>78.88</v>
+      </c>
+    </row>
     <row r="3387">
-      <c r="A3387" s="3" t="inlineStr">
+      <c r="A3387" s="1" t="n">
+        <v>45120.0</v>
+      </c>
+      <c r="B3387" s="2" t="n">
+        <v>79.91</v>
+      </c>
+    </row>
+    <row r="3388">
+      <c r="A3388" s="1" t="n">
+        <v>45121.0</v>
+      </c>
+      <c r="B3388" s="2" t="n">
+        <v>80.67</v>
+      </c>
+    </row>
+    <row r="3389">
+      <c r="A3389" s="1" t="n">
+        <v>45124.0</v>
+      </c>
+      <c r="B3389" s="2" t="n">
+        <v>78.25</v>
+      </c>
+    </row>
+    <row r="3390">
+      <c r="A3390" s="1" t="n">
+        <v>45125.0</v>
+      </c>
+      <c r="B3390" s="2" t="n">
+        <v>78.25</v>
+      </c>
+    </row>
+    <row r="3391">
+      <c r="A3391" s="1" t="n">
+        <v>45126.0</v>
+      </c>
+      <c r="B3391" s="2" t="n">
+        <v>79.52</v>
+      </c>
+    </row>
+    <row r="3392">
+      <c r="A3392" s="1" t="n">
+        <v>45127.0</v>
+      </c>
+      <c r="B3392" s="2" t="n">
+        <v>79.33</v>
+      </c>
+    </row>
+    <row r="3393">
+      <c r="A3393" s="1" t="n">
+        <v>45128.0</v>
+      </c>
+      <c r="B3393" s="2" t="n">
+        <v>79.89</v>
+      </c>
+    </row>
+    <row r="3394">
+      <c r="A3394" s="1" t="n">
+        <v>45131.0</v>
+      </c>
+      <c r="B3394" s="2" t="n">
+        <v>80.67</v>
+      </c>
+    </row>
+    <row r="3395">
+      <c r="A3395" s="1" t="n">
+        <v>45132.0</v>
+      </c>
+      <c r="B3395" s="2" t="n">
+        <v>82.19</v>
+      </c>
+    </row>
+    <row r="3396">
+      <c r="A3396" s="1" t="n">
+        <v>45133.0</v>
+      </c>
+      <c r="B3396" s="2" t="n">
+        <v>82.45</v>
+      </c>
+    </row>
+    <row r="3397">
+      <c r="A3397" s="1" t="n">
+        <v>45134.0</v>
+      </c>
+      <c r="B3397" s="2" t="n">
+        <v>83.01</v>
+      </c>
+    </row>
+    <row r="3398">
+      <c r="A3398" s="1" t="n">
+        <v>45135.0</v>
+      </c>
+      <c r="B3398" s="2" t="n">
+        <v>83.52</v>
+      </c>
+    </row>
+    <row r="3399">
+      <c r="A3399" s="1" t="n">
+        <v>45138.0</v>
+      </c>
+      <c r="B3399" s="2" t="n">
+        <v>84.41</v>
+      </c>
+    </row>
+    <row r="3400">
+      <c r="A3400" s="1" t="n">
+        <v>45139.0</v>
+      </c>
+      <c r="B3400" s="2" t="n">
+        <v>84.62</v>
+      </c>
+    </row>
+    <row r="3401">
+      <c r="A3401" s="1" t="n">
+        <v>45140.0</v>
+      </c>
+      <c r="B3401" s="2" t="n">
+        <v>84.92</v>
+      </c>
+    </row>
+    <row r="3402">
+      <c r="A3402" s="1" t="n">
+        <v>45141.0</v>
+      </c>
+      <c r="B3402" s="2" t="n">
+        <v>82.49</v>
+      </c>
+    </row>
+    <row r="3404">
+      <c r="A3404" s="3" t="inlineStr">
         <is>
           <t>数据来源：Wind</t>
         </is>
